--- a/Evaluation/CompareWithQTP.xlsx
+++ b/Evaluation/CompareWithQTP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,108 +84,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, we need UFT.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Flexiblility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes,we can publish it as a windows application and no limit to under HP policy control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multithreading-programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFT Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard: screen level-&gt;Business Component-&gt;DataTable(Record codes needs developer analysis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal: record-&gt;Repository-&gt;screen level-&gt;Business Component-&gt;DataTable Or DataBase(From Screen Level To Business Component we have Intelliprompt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal: use SQL to get TestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy for developer to test component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast:  30secs</t>
+  </si>
+  <si>
+    <t>Example is Create SalesOrder in VA01:Test case is HPE_02006_FusionEMEA_CreditOrder_Eiffel_LH_AP_AR_IC</t>
+  </si>
+  <si>
+    <t>Easy: TestData is binding in reporsitory level and no need to install office</t>
+  </si>
+  <si>
     <t>Normal: not a mature solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>parallel-execution</t>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No, we need UFT.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Flexiblility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes,we can publish it as a windows application and no limit to under HP policy control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multithreading-programming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal: Near 1 minute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast:  30secs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFT Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard: screen level-&gt;Business Component-&gt;DataTable(Record codes needs developer analysis)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal: record-&gt;Repository-&gt;screen level-&gt;Business Component-&gt;DataTable Or DataBase(From Screen Level To Business Component we have Intelliprompt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy: TestData is binding in reporsitory level and no need to install office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal: use SQL to get TestData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example is Create SalesOrder in VA01:Test case is HPE_02013_FusionEMEA_I1I2Order_DC_Eiffel_LH_AP_AR_IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy for developer to test component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Create more than 2 sessions </t>
+  </si>
+  <si>
+    <t>Slow: Near 3 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,16 +243,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,28 +573,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="40.5" customWidth="1"/>
-    <col min="12" max="12" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="40.42578125" customWidth="1"/>
+    <col min="12" max="12" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,135 +602,152 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="90">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation/CompareWithQTP.xlsx
+++ b/Evaluation/CompareWithQTP.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +57,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Yes-Oriented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record Convert to Component Complexity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy: mature solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, we need UFT.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Flexiblility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multithreading-programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFT Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard: screen level-&gt;Business Component-&gt;DataTable(Record codes needs developer analysis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal: record-&gt;Repository-&gt;screen level-&gt;Business Component-&gt;DataTable Or DataBase(From Screen Level To Business Component we have Intelliprompt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal: use SQL to get TestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy for developer to test component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast:  30secs</t>
+  </si>
+  <si>
+    <t>Example is Create SalesOrder in VA01:Test case is HPE_02006_FusionEMEA_CreditOrder_Eiffel_LH_AP_AR_IC</t>
+  </si>
+  <si>
+    <t>Normal: not a mature solution</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>parallel-execution</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create more than 2 sessions </t>
+  </si>
+  <si>
+    <t>Slow: Near 3 minutes</t>
+  </si>
+  <si>
+    <t>Yes,we can publish it as a windows application and no need to install test tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Yes-Need Itool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes-Oriented</t>
+    <t>Easy: TestData is binding in reporsitory level and no need to install office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修改代码的情况下，改变flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多维数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen level和数据表不做绑定，还是需要DataEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容多行和长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可以兼容output（从上游来的）和input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Compare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,123 +204,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Record Convert to Component Complexity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy: mature solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No, we need UFT.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Flexiblility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes,we can publish it as a windows application and no limit to under HP policy control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multithreading-programming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFT Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard: screen level-&gt;Business Component-&gt;DataTable(Record codes needs developer analysis)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal: record-&gt;Repository-&gt;screen level-&gt;Business Component-&gt;DataTable Or DataBase(From Screen Level To Business Component we have Intelliprompt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal: use SQL to get TestData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy for developer to test component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast:  30secs</t>
-  </si>
-  <si>
-    <t>Example is Create SalesOrder in VA01:Test case is HPE_02006_FusionEMEA_CreditOrder_Eiffel_LH_AP_AR_IC</t>
-  </si>
-  <si>
-    <t>Easy: TestData is binding in reporsitory level and no need to install office</t>
-  </si>
-  <si>
-    <t>Normal: not a mature solution</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>parallel-execution</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create more than 2 sessions </t>
-  </si>
-  <si>
-    <t>Slow: Near 3 minutes</t>
+    <t>Execution Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,26 +234,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +284,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,14 +298,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,9 +340,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,28 +652,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="40.42578125" customWidth="1"/>
-    <col min="12" max="12" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="40.375" customWidth="1"/>
+    <col min="12" max="12" width="51.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,152 +681,223 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
+    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
